--- a/tests/global_metrics_config_01.xlsx
+++ b/tests/global_metrics_config_01.xlsx
@@ -507,16 +507,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0842</v>
+        <v>0.08663999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0446</v>
+        <v>0.05547000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>0.099</v>
       </c>
       <c r="F2" t="n">
-        <v>0.099</v>
+        <v>0.09801</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -537,16 +537,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0738</v>
+        <v>0.07838000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0387</v>
+        <v>0.03408</v>
       </c>
       <c r="E3" t="n">
         <v>0.0984</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0439</v>
+        <v>0.04534</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -567,16 +567,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0467</v>
+        <v>0.05067</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.01801</v>
       </c>
       <c r="E4" t="n">
         <v>0.1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0733</v>
+        <v>0.062</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.073</v>
+        <v>0.06967</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0056</v>
+        <v>0.02529</v>
       </c>
       <c r="E5" t="n">
         <v>0.08989999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0225</v>
+        <v>0.03596</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -631,13 +631,13 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.069425</v>
+        <v>0.07134</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000191661875</v>
+        <v>0.00017842235</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01384420004911804</v>
+        <v>0.01335748292156872</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -690,13 +690,13 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>0.01815</v>
+        <v>0.02214166666666667</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0003236125</v>
+        <v>0.0003767985138888889</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01798923289081555</v>
+        <v>0.01941129861418058</v>
       </c>
     </row>
     <row r="9">
@@ -718,13 +718,13 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>0.03978333333333333</v>
+        <v>0.04021833333333334</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001351844722222223</v>
+        <v>0.001182285213888889</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0367674410616543</v>
+        <v>0.03438437456009472</v>
       </c>
     </row>
     <row r="10">
@@ -739,16 +739,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0297</v>
+        <v>0.06635000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0198</v>
+        <v>0.03812</v>
       </c>
       <c r="E10" t="n">
         <v>0.099</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1188</v>
+        <v>0.09999</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.09669999999999999</v>
+        <v>0.09332</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0422</v>
+        <v>0.03392</v>
       </c>
       <c r="E11" t="n">
         <v>0.0984</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0439</v>
+        <v>0.04728</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -799,16 +799,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1</v>
+        <v>0.09934999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04</v>
+        <v>0.03934</v>
       </c>
       <c r="E12" t="n">
         <v>0.1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0333</v>
+        <v>0.06999</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -829,16 +829,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1067</v>
+        <v>0.11124</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0562</v>
+        <v>0.03708</v>
       </c>
       <c r="E13" t="n">
         <v>0.08989999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0393</v>
+        <v>0.03596</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -863,13 +863,13 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>0.083275</v>
+        <v>0.09256500000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000969741875</v>
+        <v>0.000270647025</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03114067878194051</v>
+        <v>0.01645135328779976</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -922,13 +922,13 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>0.02636666666666667</v>
+        <v>0.02474333333333333</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0004600188888888889</v>
+        <v>0.0003088112555555556</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0214480509344996</v>
+        <v>0.01757302636302454</v>
       </c>
     </row>
     <row r="17">
@@ -950,13 +950,13 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>0.03921666666666667</v>
+        <v>0.04220333333333334</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001577724722222223</v>
+        <v>0.001289732022222222</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03972058310526449</v>
+        <v>0.03591283923922226</v>
       </c>
     </row>
   </sheetData>
